--- a/data/chatbot_data.xlsx
+++ b/data/chatbot_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="6" rupBuild="9.103.103.45589"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>너의 이름은?</t>
   </si>
@@ -177,6 +177,45 @@
   </si>
   <si>
     <t>서울 맛집 입니다.</t>
+  </si>
+  <si>
+    <t>네이버 데이터 트랜드 검색</t>
+  </si>
+  <si>
+    <t>네이버|트렌드</t>
+  </si>
+  <si>
+    <t>데이터</t>
+  </si>
+  <si>
+    <t>미세먼지</t>
+  </si>
+  <si>
+    <t>미세먼지|알려</t>
+  </si>
+  <si>
+    <t>저는 천재 챗봇 천봇이라고 합니다</t>
+  </si>
+  <si>
+    <t>맛집 알려줘</t>
+  </si>
+  <si>
+    <t>맛집|알려</t>
+  </si>
+  <si>
+    <t>맛집</t>
+  </si>
+  <si>
+    <t>날씨</t>
+  </si>
+  <si>
+    <t>날씨|알려</t>
+  </si>
+  <si>
+    <t>분석해줘</t>
+  </si>
+  <si>
+    <t>분석시작</t>
   </si>
 </sst>
 </file>
@@ -533,7 +572,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -542,7 +580,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -551,7 +588,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -560,7 +596,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -575,7 +610,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -590,7 +624,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -605,7 +638,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -614,7 +646,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -625,7 +656,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1099,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1125,200 +1155,233 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="0" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="0" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="0" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="0" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="0" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="0" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="0" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/data/chatbot_data.xlsx
+++ b/data/chatbot_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="6" rupBuild="9.103.103.45589"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>너의 이름은?</t>
   </si>
@@ -216,6 +216,24 @@
   </si>
   <si>
     <t>분석시작</t>
+  </si>
+  <si>
+    <t>여</t>
+  </si>
+  <si>
+    <t>영화</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>ㅋ</t>
+  </si>
+  <si>
+    <t>ㅎ</t>
+  </si>
+  <si>
+    <t>ㅎㅎㅎㅎㅎㅎㅎㅎㅎㅎㅎㅋㅎㅋㅎㅋㅎ</t>
   </si>
 </sst>
 </file>
@@ -1129,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1331,13 +1349,13 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="0" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1356,10 +1374,10 @@
         <v>49</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1382,6 +1400,17 @@
       </c>
       <c r="C22" s="0" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/data/chatbot_data.xlsx
+++ b/data/chatbot_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace_chatbot\ChatBotMain\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2A2B9A-1815-4008-AE1B-EAE67C7E07FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978D693D-0A4A-4E97-B489-2B2863C0CA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="1236" windowWidth="17280" windowHeight="8964" tabRatio="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>너의 이름은?</t>
   </si>
@@ -28,9 +28,6 @@
     <t>네 이름을 말해줘</t>
   </si>
   <si>
-    <t>네 이름이 뭐니?</t>
-  </si>
-  <si>
     <t>놀러가고 싶다</t>
   </si>
   <si>
@@ -100,12 +97,6 @@
     <t>너|이름</t>
   </si>
   <si>
-    <t>네|이름|말해</t>
-  </si>
-  <si>
-    <t>네|이름|뭐</t>
-  </si>
-  <si>
     <t>놀러|싶</t>
   </si>
   <si>
@@ -143,9 +134,6 @@
   </si>
   <si>
     <t>1조 멤버 알려줘</t>
-  </si>
-  <si>
-    <t>1조|멤버|알려</t>
   </si>
   <si>
     <t>1조원은 강재균,이성찬,정훈오,김기환 입니다</t>
@@ -223,10 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>잘생|누구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>너 별명 뭐야?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,6 +220,66 @@
   </si>
   <si>
     <t>똥유리 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네|이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장|이쁜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이유 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방갑습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반갑습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭘봐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>널봐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꺼져</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너|뭐야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘생|가장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1조|멤버</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -617,35 +661,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -653,21 +697,21 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
+      <c r="B5" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -675,40 +719,40 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -716,10 +760,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -727,65 +771,65 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -793,106 +837,143 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
         <v>48</v>
       </c>
-      <c r="B21" t="s">
-        <v>49</v>
-      </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>